--- a/Data Files/Inventory/IssueDemoDevices.xlsx
+++ b/Data Files/Inventory/IssueDemoDevices.xlsx
@@ -8,18 +8,25 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="salesrep" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SerialNo</t>
   </si>
   <si>
-    <t>0517011501-002711</t>
+    <t>0315020301-000129</t>
+  </si>
+  <si>
+    <t>0315020301-000078</t>
+  </si>
+  <si>
+    <t>SerialSales</t>
   </si>
 </sst>
 </file>
@@ -361,28 +368,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>